--- a/public/data/yield_loss/yield_table_burundi.xlsx
+++ b/public/data/yield_loss/yield_table_burundi.xlsx
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1145.23</v>
+        <v>1131.07</v>
       </c>
       <c r="G2" t="n">
         <v>699.41</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.85</v>
+        <v>10.83</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>388.02</v>
       </c>
       <c r="O2" t="n">
-        <v>24.77</v>
+        <v>24.3</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6432.9</v>
+        <v>6329.53</v>
       </c>
       <c r="G5" t="n">
         <v>868.29</v>
@@ -1809,7 +1809,7 @@
         <v>1784.85</v>
       </c>
       <c r="O5" t="n">
-        <v>8.47</v>
+        <v>8.04</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4117.05</v>
+        <v>3789.93</v>
       </c>
       <c r="G6" t="n">
         <v>1069.56</v>
@@ -1889,7 +1889,7 @@
         <v>941.73</v>
       </c>
       <c r="O6" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.22</v>
+        <v>137.68</v>
       </c>
       <c r="G21" t="n">
         <v>11.82</v>
@@ -3089,7 +3089,7 @@
         <v>55.5</v>
       </c>
       <c r="O21" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2888.63</v>
+        <v>2728.19</v>
       </c>
       <c r="G22" t="n">
         <v>241.47</v>
@@ -3169,7 +3169,7 @@
         <v>622.79</v>
       </c>
       <c r="O22" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>147.58</v>
+        <v>144.39</v>
       </c>
       <c r="G24" t="n">
         <v>97.13</v>
@@ -3329,7 +3329,7 @@
         <v>82.69</v>
       </c>
       <c r="O24" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2435.67</v>
+        <v>2281.15</v>
       </c>
       <c r="G26" t="n">
         <v>142</v>
@@ -3489,7 +3489,7 @@
         <v>436.4</v>
       </c>
       <c r="O26" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1000.95</v>
+        <v>975.91</v>
       </c>
       <c r="G27" t="n">
         <v>2.34</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>532.1</v>
+        <v>490</v>
       </c>
       <c r="G28" t="n">
         <v>68.69</v>
@@ -3649,7 +3649,7 @@
         <v>209.61</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1740.24</v>
+        <v>1761</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>862.96</v>
+        <v>862.68</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>349.9</v>
+        <v>349.78</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>144.49</v>
+        <v>144.44</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0.58</v>
       </c>
       <c r="Z29" t="n">
-        <v>201.22</v>
+        <v>201.16</v>
       </c>
     </row>
     <row r="30">
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1023.13</v>
+        <v>889.82</v>
       </c>
       <c r="G30" t="n">
         <v>125.61</v>
@@ -3806,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>420.09</v>
+        <v>419.45</v>
       </c>
       <c r="O30" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>395.84</v>
+        <v>395.24</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>72.89</v>
+        <v>72.78</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>2.12</v>
       </c>
       <c r="Z30" t="n">
-        <v>208.69</v>
+        <v>208.4</v>
       </c>
     </row>
     <row r="31">
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1782.78</v>
+        <v>1657.8</v>
       </c>
       <c r="G32" t="n">
         <v>187.86</v>
@@ -3966,16 +3966,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>632.97</v>
+        <v>632.33</v>
       </c>
       <c r="O32" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>543.24</v>
+        <v>542.64</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>129.22</v>
+        <v>129.11</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>2.42</v>
       </c>
       <c r="Z32" t="n">
-        <v>283.35</v>
+        <v>283.05</v>
       </c>
     </row>
     <row r="33">
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2205.63</v>
+        <v>1627.6</v>
       </c>
       <c r="G33" t="n">
         <v>259.28</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2773.27</v>
+        <v>2512.55</v>
       </c>
       <c r="G34" t="n">
         <v>138.89</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5176.56</v>
+        <v>3723.16</v>
       </c>
       <c r="G35" t="n">
         <v>313.91</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5909.84</v>
+        <v>5899.5</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1038.3</v>
+        <v>1036.6</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>408.32</v>
+        <v>407.51</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>8.68</v>
       </c>
       <c r="Z35" t="n">
-        <v>688.12</v>
+        <v>686.97</v>
       </c>
     </row>
     <row r="36">
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25139.77</v>
+        <v>19595.22</v>
       </c>
       <c r="G37" t="n">
         <v>88.7</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>6292.43</v>
+        <v>6206.17</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1162.58</v>
+        <v>1147.49</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.14</v>
+        <v>23.99</v>
       </c>
       <c r="T37" t="n">
-        <v>1507.05</v>
+        <v>1494.42</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>15.04</v>
       </c>
       <c r="Z37" t="n">
-        <v>669.76</v>
+        <v>659.92</v>
       </c>
     </row>
     <row r="38">
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7223.05</v>
+        <v>5691.57</v>
       </c>
       <c r="G38" t="n">
         <v>6.69</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>5315.89</v>
+        <v>5305.27</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1106.23</v>
+        <v>1104.42</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>7.25</v>
       </c>
       <c r="T38" t="n">
-        <v>559.05</v>
+        <v>558.19</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>6.91</v>
       </c>
       <c r="Z38" t="n">
-        <v>698.94</v>
+        <v>697.72</v>
       </c>
     </row>
     <row r="39">
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>257.39</v>
+        <v>264.38</v>
       </c>
       <c r="G39" t="n">
         <v>86.41</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15767.97</v>
+        <v>12493.35</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1976.53</v>
+        <v>1973.95</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>277.6</v>
+        <v>277.29</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>0.44</v>
       </c>
       <c r="T40" t="n">
-        <v>720.78</v>
+        <v>719.38</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>4.01</v>
       </c>
       <c r="Z40" t="n">
-        <v>183.38</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="41">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7709.94</v>
+        <v>6704.03</v>
       </c>
       <c r="G41" t="n">
         <v>94.52</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>537.13</v>
+        <v>524.26</v>
       </c>
       <c r="G42" t="n">
         <v>1.57</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3668.53</v>
+        <v>3552.55</v>
       </c>
       <c r="G43" t="n">
         <v>36.35</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>650.42</v>
+        <v>631.96</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>206.36</v>
       </c>
       <c r="O43" t="n">
-        <v>212.26</v>
+        <v>206.64</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4867,7 +4867,7 @@
         <v>929.62</v>
       </c>
       <c r="U43" t="n">
-        <v>96.59</v>
+        <v>95.26</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1624.04</v>
+        <v>1619.2</v>
       </c>
       <c r="G46" t="n">
         <v>9.14</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>516.21</v>
+        <v>514.05</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>125.84</v>
       </c>
       <c r="O46" t="n">
-        <v>158.25</v>
+        <v>157.64</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>691.73</v>
       </c>
       <c r="U46" t="n">
-        <v>55.13</v>
+        <v>55.09</v>
       </c>
       <c r="V46" t="n">
         <v>0.01</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>127.51</v>
+        <v>127.03</v>
       </c>
       <c r="G48" t="n">
         <v>11.67</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>220.45</v>
+        <v>219.51</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>48.97</v>
       </c>
       <c r="O48" t="n">
-        <v>26.52</v>
+        <v>26.44</v>
       </c>
       <c r="P48" t="n">
         <v>7.47</v>
@@ -5267,7 +5267,7 @@
         <v>22.5</v>
       </c>
       <c r="U48" t="n">
-        <v>8.43</v>
+        <v>8.42</v>
       </c>
       <c r="V48" t="n">
         <v>61.55</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>3817.31</v>
+        <v>3700.16</v>
       </c>
       <c r="G49" t="n">
         <v>91.37</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>49.92</v>
+        <v>49.83</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>1099.15</v>
       </c>
       <c r="O49" t="n">
-        <v>54.21</v>
+        <v>50.48</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>553.95</v>
       </c>
       <c r="U49" t="n">
-        <v>24.97</v>
+        <v>23.69</v>
       </c>
       <c r="V49" t="n">
         <v>126.8</v>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1213.11</v>
+        <v>1209.37</v>
       </c>
       <c r="G50" t="n">
         <v>2.37</v>
@@ -5409,7 +5409,7 @@
         <v>325.12</v>
       </c>
       <c r="O50" t="n">
-        <v>25.37</v>
+        <v>25.34</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1101.26</v>
+        <v>1001.77</v>
       </c>
       <c r="G52" t="n">
         <v>96.17</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>221.97</v>
+        <v>221.02</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>357.85</v>
       </c>
       <c r="O52" t="n">
-        <v>80.3</v>
+        <v>76.56</v>
       </c>
       <c r="P52" t="n">
         <v>4.8</v>
@@ -5587,7 +5587,7 @@
         <v>120.56</v>
       </c>
       <c r="U52" t="n">
-        <v>31.4</v>
+        <v>30.12</v>
       </c>
       <c r="V52" t="n">
         <v>195.63</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>17176.93</v>
+        <v>14324.68</v>
       </c>
       <c r="G54" t="n">
         <v>498.29</v>
@@ -5726,28 +5726,28 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1804.33</v>
+        <v>1798.43</v>
       </c>
       <c r="O54" t="n">
-        <v>299.1</v>
+        <v>257.97</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>248.38</v>
+        <v>247.87</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>470.49</v>
+        <v>468.37</v>
       </c>
       <c r="T54" t="n">
-        <v>1038.17</v>
+        <v>1035.54</v>
       </c>
       <c r="U54" t="n">
-        <v>169.47</v>
+        <v>163.22</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>6.65</v>
       </c>
       <c r="Z54" t="n">
-        <v>146</v>
+        <v>145.93</v>
       </c>
     </row>
     <row r="55">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>3894.62</v>
+        <v>3713.87</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>3078.94</v>
+        <v>3054.32</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>3894.44</v>
+        <v>3145.48</v>
       </c>
       <c r="G57" t="n">
         <v>51.75</v>
@@ -5987,7 +5987,7 @@
         <v>334.18</v>
       </c>
       <c r="U57" t="n">
-        <v>29.76</v>
+        <v>27.78</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5685.39</v>
+        <v>5621.18</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>11188.5</v>
+        <v>10848.64</v>
       </c>
       <c r="G59" t="n">
         <v>28.62</v>
@@ -6129,7 +6129,7 @@
         <v>1668.34</v>
       </c>
       <c r="O59" t="n">
-        <v>25.1</v>
+        <v>25.42</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>751.58</v>
       </c>
       <c r="U59" t="n">
-        <v>29.73</v>
+        <v>29.68</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>5213.47</v>
+        <v>5015.91</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>381.42</v>
       </c>
       <c r="U60" t="n">
-        <v>19.15</v>
+        <v>18.91</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>8257.48</v>
+        <v>8026.32</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>3482.96</v>
+        <v>2816.61</v>
       </c>
       <c r="G62" t="n">
         <v>105.14</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1271.32</v>
+        <v>1264.07</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>23189.72</v>
+        <v>18973.54</v>
       </c>
       <c r="G64" t="n">
         <v>12.73</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2137</v>
+        <v>2134.42</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>298.9</v>
+        <v>298.6</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>5.43</v>
       </c>
       <c r="T64" t="n">
-        <v>1054.79</v>
+        <v>1053.39</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>5.59</v>
       </c>
       <c r="Z64" t="n">
-        <v>145.66</v>
+        <v>145.48</v>
       </c>
     </row>
     <row r="65">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>17254.93</v>
+        <v>15013.82</v>
       </c>
       <c r="G65" t="n">
         <v>316.42</v>
@@ -6609,7 +6609,7 @@
         <v>1464.82</v>
       </c>
       <c r="O65" t="n">
-        <v>302.61</v>
+        <v>253.62</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>774.41</v>
       </c>
       <c r="U65" t="n">
-        <v>151.67</v>
+        <v>140.37</v>
       </c>
       <c r="V65" t="n">
         <v>0.02</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>16075.42</v>
+        <v>14027.83</v>
       </c>
       <c r="G66" t="n">
         <v>200.63</v>
@@ -6689,7 +6689,7 @@
         <v>862.94</v>
       </c>
       <c r="O66" t="n">
-        <v>308.45</v>
+        <v>262.63</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -6707,7 +6707,7 @@
         <v>777.13</v>
       </c>
       <c r="U66" t="n">
-        <v>143.44</v>
+        <v>131.31</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>11036.31</v>
+        <v>10038.58</v>
       </c>
       <c r="G67" t="n">
         <v>396.91</v>
@@ -6766,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>944.51</v>
+        <v>944.42</v>
       </c>
       <c r="O67" t="n">
-        <v>231.22</v>
+        <v>202.54</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -6781,13 +6781,13 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>125.08</v>
+        <v>125.06</v>
       </c>
       <c r="T67" t="n">
-        <v>490.4</v>
+        <v>490.33</v>
       </c>
       <c r="U67" t="n">
-        <v>113.11</v>
+        <v>112.18</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>5587.33</v>
+        <v>5571.53</v>
       </c>
       <c r="G68" t="n">
         <v>7.82</v>
@@ -6849,7 +6849,7 @@
         <v>671.77</v>
       </c>
       <c r="O68" t="n">
-        <v>35.37</v>
+        <v>35.16</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>552.74</v>
       </c>
       <c r="U68" t="n">
-        <v>41.6</v>
+        <v>41.56</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>3957.5</v>
+        <v>3908.47</v>
       </c>
       <c r="G69" t="n">
         <v>10.66</v>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>58.8</v>
+        <v>58.6</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>273.68</v>
       </c>
       <c r="O69" t="n">
-        <v>76.78</v>
+        <v>75.93</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>328.97</v>
       </c>
       <c r="U69" t="n">
-        <v>57.16</v>
+        <v>56.98</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>13195.73</v>
+        <v>11035.14</v>
       </c>
       <c r="G70" t="n">
         <v>264.29</v>
@@ -7006,28 +7006,28 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>676.49</v>
+        <v>676.32</v>
       </c>
       <c r="O70" t="n">
-        <v>283.7</v>
+        <v>234.8</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>38.27</v>
+        <v>38.26</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>124.88</v>
+        <v>124.85</v>
       </c>
       <c r="T70" t="n">
-        <v>558.05</v>
+        <v>557.93</v>
       </c>
       <c r="U70" t="n">
-        <v>143.35</v>
+        <v>131.57</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>12844.87</v>
+        <v>11156.15</v>
       </c>
       <c r="G71" t="n">
         <v>355.49</v>
@@ -7086,28 +7086,28 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>843.59</v>
+        <v>843.33</v>
       </c>
       <c r="O71" t="n">
-        <v>316.83</v>
+        <v>275.48</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>47.8</v>
+        <v>47.79</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>184.03</v>
+        <v>183.99</v>
       </c>
       <c r="T71" t="n">
-        <v>565.92</v>
+        <v>565.73</v>
       </c>
       <c r="U71" t="n">
-        <v>126.15</v>
+        <v>123.29</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>10331.11</v>
+        <v>10113.73</v>
       </c>
       <c r="G72" t="n">
         <v>1.81</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>3895.56</v>
+        <v>3864.07</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>3123.68</v>
+        <v>3115.8</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>21028.27</v>
+        <v>19557.1</v>
       </c>
       <c r="G75" t="n">
         <v>3.34</v>
@@ -7409,7 +7409,7 @@
         <v>3052.75</v>
       </c>
       <c r="O75" t="n">
-        <v>4.14</v>
+        <v>4.08</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>2441.47</v>
       </c>
       <c r="U75" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="V75" t="n">
         <v>2.17</v>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>16277.04</v>
+        <v>15788.01</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>20605.06</v>
+        <v>14423.92</v>
       </c>
       <c r="G77" t="n">
         <v>96.45</v>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>2604.75</v>
+        <v>2602.14</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>984.82</v>
+        <v>983.73</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>779.08</v>
+        <v>778.43</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>2.49</v>
       </c>
       <c r="Z77" t="n">
-        <v>270.01</v>
+        <v>269.84</v>
       </c>
     </row>
     <row r="78">
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>12314.66</v>
+        <v>11210.97</v>
       </c>
       <c r="G78" t="n">
         <v>177.03</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>14452.3</v>
+        <v>13757.1</v>
       </c>
       <c r="G79" t="n">
         <v>8.49</v>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>5689.84</v>
+        <v>5579.56</v>
       </c>
       <c r="G80" t="n">
         <v>15.08</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>11146.68</v>
+        <v>11100.82</v>
       </c>
       <c r="G87" t="n">
         <v>35.13</v>
@@ -8369,7 +8369,7 @@
         <v>803.48</v>
       </c>
       <c r="O87" t="n">
-        <v>159.31</v>
+        <v>159.19</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -8387,7 +8387,7 @@
         <v>1541.33</v>
       </c>
       <c r="U87" t="n">
-        <v>109.1</v>
+        <v>109.05</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>8188.45</v>
+        <v>6818.54</v>
       </c>
       <c r="G88" t="n">
         <v>997.53</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>2054.28</v>
+        <v>1738.3</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>3335.62</v>
       </c>
       <c r="O88" t="n">
-        <v>464.56</v>
+        <v>407.6</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>287.31</v>
       </c>
       <c r="U88" t="n">
-        <v>104.92</v>
+        <v>97.7</v>
       </c>
       <c r="V88" t="n">
         <v>35.73</v>
@@ -8502,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1073.95</v>
+        <v>1073.92</v>
       </c>
       <c r="G89" t="n">
         <v>2.24</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>24065.37</v>
+        <v>20630.86</v>
       </c>
       <c r="G95" t="n">
         <v>245.37</v>
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>3353.27</v>
+        <v>3212.73</v>
       </c>
       <c r="G96" t="n">
         <v>40.75</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>5604.57</v>
+        <v>5380.54</v>
       </c>
       <c r="G97" t="n">
         <v>37.4</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>13674.68</v>
+        <v>13043.95</v>
       </c>
       <c r="G98" t="n">
         <v>612.22</v>
@@ -9249,7 +9249,7 @@
         <v>2621.57</v>
       </c>
       <c r="O98" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2222.8</v>
+        <v>2157.54</v>
       </c>
       <c r="G99" t="n">
         <v>23.07</v>
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>3320.51</v>
+        <v>3273.2</v>
       </c>
       <c r="G100" t="n">
         <v>14.01</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>355.61</v>
+        <v>351.56</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>256.61</v>
       </c>
       <c r="O100" t="n">
-        <v>95.29</v>
+        <v>93.96</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>425.57</v>
       </c>
       <c r="U100" t="n">
-        <v>36.38</v>
+        <v>36.26</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>8122.93</v>
+        <v>8108.19</v>
       </c>
       <c r="G102" t="n">
         <v>15.57</v>
@@ -9569,7 +9569,7 @@
         <v>704.99</v>
       </c>
       <c r="O102" t="n">
-        <v>49.53</v>
+        <v>49.4</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>3699.35</v>
+        <v>3614.9</v>
       </c>
       <c r="G106" t="n">
         <v>20.26</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>347.34</v>
+        <v>334.61</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>227.28</v>
       </c>
       <c r="O106" t="n">
-        <v>95.1</v>
+        <v>92.34</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -9907,7 +9907,7 @@
         <v>504.33</v>
       </c>
       <c r="U106" t="n">
-        <v>42.69</v>
+        <v>42.37</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>12798.27</v>
+        <v>11187.38</v>
       </c>
       <c r="G107" t="n">
         <v>150.06</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>2329.76</v>
+        <v>2321.25</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -9975,16 +9975,16 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>874.9</v>
+        <v>872.2</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>51.59</v>
+        <v>51.44</v>
       </c>
       <c r="T107" t="n">
-        <v>810.98</v>
+        <v>809.14</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>5.65</v>
       </c>
       <c r="Z107" t="n">
-        <v>255.2</v>
+        <v>254.16</v>
       </c>
     </row>
     <row r="108">
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>6091.93</v>
+        <v>5613.14</v>
       </c>
       <c r="G108" t="n">
         <v>105.37</v>
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>5114.92</v>
+        <v>4954.23</v>
       </c>
       <c r="G109" t="n">
         <v>17.23</v>
@@ -10182,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>7140.06</v>
+        <v>6728.75</v>
       </c>
       <c r="G110" t="n">
         <v>109.68</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>7518.81</v>
+        <v>6959.23</v>
       </c>
       <c r="G111" t="n">
         <v>75.75</v>
@@ -10307,7 +10307,7 @@
         <v>578.33</v>
       </c>
       <c r="U111" t="n">
-        <v>11.31</v>
+        <v>10.65</v>
       </c>
       <c r="V111" t="n">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>5377.09</v>
+        <v>5067.04</v>
       </c>
       <c r="G112" t="n">
         <v>84.51</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>8188.72</v>
+        <v>7993.15</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>1128.63</v>
       </c>
       <c r="U113" t="n">
-        <v>128.08</v>
+        <v>125.52</v>
       </c>
       <c r="V113" t="n">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>7900.58</v>
+        <v>7585.3</v>
       </c>
       <c r="G114" t="n">
         <v>163.36</v>
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>7088.17</v>
+        <v>7082.02</v>
       </c>
       <c r="G115" t="n">
         <v>12.06</v>
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>5691.99</v>
+        <v>5654.72</v>
       </c>
       <c r="G116" t="n">
         <v>29.62</v>
@@ -10707,7 +10707,7 @@
         <v>775.51</v>
       </c>
       <c r="U116" t="n">
-        <v>45.97</v>
+        <v>45.92</v>
       </c>
       <c r="V116" t="n">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>5708.63</v>
+        <v>5702.07</v>
       </c>
       <c r="G117" t="n">
         <v>5.33</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>21818.88</v>
+        <v>21235.74</v>
       </c>
       <c r="G118" t="n">
         <v>88.23</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>4819.12</v>
+        <v>4815.78</v>
       </c>
       <c r="G119" t="n">
         <v>3.65</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>10603.95</v>
+        <v>10003.55</v>
       </c>
       <c r="G120" t="n">
         <v>224.83</v>
@@ -11009,7 +11009,7 @@
         <v>1567.02</v>
       </c>
       <c r="O120" t="n">
-        <v>24.84</v>
+        <v>23.92</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -11027,7 +11027,7 @@
         <v>434.14</v>
       </c>
       <c r="U120" t="n">
-        <v>27.86</v>
+        <v>27.44</v>
       </c>
       <c r="V120" t="n">
         <v>0.22</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>5038.62</v>
+        <v>4979.58</v>
       </c>
       <c r="G121" t="n">
         <v>22.85</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>267.09</v>
+        <v>265.06</v>
       </c>
       <c r="G122" t="n">
         <v>5.54</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>147.96</v>
+        <v>147.07</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>90.84</v>
       </c>
       <c r="O122" t="n">
-        <v>38.26</v>
+        <v>38.04</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>64.77</v>
       </c>
       <c r="U122" t="n">
-        <v>8.97</v>
+        <v>8.95</v>
       </c>
       <c r="V122" t="n">
         <v>3.33</v>
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>5994.38</v>
+        <v>5325.85</v>
       </c>
       <c r="G123" t="n">
         <v>316.97</v>
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>1737.23</v>
+        <v>1590.27</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>2183.1</v>
       </c>
       <c r="O123" t="n">
-        <v>426.82</v>
+        <v>400.08</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>659.13</v>
       </c>
       <c r="U123" t="n">
-        <v>73.97</v>
+        <v>73.1</v>
       </c>
       <c r="V123" t="n">
         <v>13.78</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>495.92</v>
+        <v>494.38</v>
       </c>
       <c r="G125" t="n">
         <v>8.03</v>
@@ -11400,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>216.54</v>
+        <v>215.4</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -11409,7 +11409,7 @@
         <v>31.05</v>
       </c>
       <c r="O125" t="n">
-        <v>78.17</v>
+        <v>77.8</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
@@ -11427,7 +11427,7 @@
         <v>212.45</v>
       </c>
       <c r="U125" t="n">
-        <v>19.46</v>
+        <v>19.41</v>
       </c>
       <c r="V125" t="n">
         <v>0.64</v>
@@ -11622,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1464.61</v>
+        <v>1446.65</v>
       </c>
       <c r="G128" t="n">
         <v>0.26</v>
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>52.32</v>
+        <v>52.23</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>100.98</v>
       </c>
       <c r="O128" t="n">
-        <v>20.46</v>
+        <v>20.43</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>244.78</v>
       </c>
       <c r="U128" t="n">
-        <v>39.91</v>
+        <v>39.66</v>
       </c>
       <c r="V128" t="n">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2122.47</v>
+        <v>2098.21</v>
       </c>
       <c r="G129" t="n">
         <v>10.51</v>
@@ -11729,7 +11729,7 @@
         <v>111.51</v>
       </c>
       <c r="O129" t="n">
-        <v>63.28</v>
+        <v>62.4</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>272.98</v>
       </c>
       <c r="U129" t="n">
-        <v>66.37</v>
+        <v>66.23</v>
       </c>
       <c r="V129" t="n">
         <v>0</v>
@@ -11782,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1929.99</v>
+        <v>1873.73</v>
       </c>
       <c r="G130" t="n">
         <v>24.4</v>
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>146.04</v>
+        <v>141.17</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -11809,7 +11809,7 @@
         <v>99.03</v>
       </c>
       <c r="O130" t="n">
-        <v>130.1</v>
+        <v>125.3</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -11827,7 +11827,7 @@
         <v>341.4</v>
       </c>
       <c r="U130" t="n">
-        <v>94.29</v>
+        <v>91.99</v>
       </c>
       <c r="V130" t="n">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1158.93</v>
+        <v>1154.39</v>
       </c>
       <c r="G131" t="n">
         <v>2.63</v>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>450.79</v>
+        <v>450.04</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -11889,7 +11889,7 @@
         <v>80.41</v>
       </c>
       <c r="O131" t="n">
-        <v>135.55</v>
+        <v>135.3</v>
       </c>
       <c r="P131" t="n">
         <v>0</v>
@@ -11907,7 +11907,7 @@
         <v>207.5</v>
       </c>
       <c r="U131" t="n">
-        <v>44.87</v>
+        <v>44.76</v>
       </c>
       <c r="V131" t="n">
         <v>0</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>385.42</v>
+        <v>384.96</v>
       </c>
       <c r="G132" t="n">
         <v>2.15</v>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>269.84</v>
+        <v>269.49</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>53.44</v>
       </c>
       <c r="O132" t="n">
-        <v>61.82</v>
+        <v>61.79</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>77.33</v>
       </c>
       <c r="U132" t="n">
-        <v>11.09</v>
+        <v>11.08</v>
       </c>
       <c r="V132" t="n">
         <v>0.02</v>
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>926.48</v>
+        <v>922.85</v>
       </c>
       <c r="G133" t="n">
         <v>5.3</v>
@@ -12040,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>319.9</v>
+        <v>319.11</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>25.9</v>
       </c>
       <c r="O133" t="n">
-        <v>111.81</v>
+        <v>111.56</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
@@ -12067,7 +12067,7 @@
         <v>210.49</v>
       </c>
       <c r="U133" t="n">
-        <v>37.67</v>
+        <v>38.01</v>
       </c>
       <c r="V133" t="n">
         <v>0</v>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1190.78</v>
+        <v>1179.36</v>
       </c>
       <c r="G134" t="n">
         <v>5.22</v>
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>126.2</v>
+        <v>124.95</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>47.29</v>
       </c>
       <c r="O134" t="n">
-        <v>43.04</v>
+        <v>42.61</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
@@ -12147,7 +12147,7 @@
         <v>315.96</v>
       </c>
       <c r="U134" t="n">
-        <v>63.88</v>
+        <v>64.19</v>
       </c>
       <c r="V134" t="n">
         <v>0</v>
